--- a/results/multiclass/multiclass.xlsx
+++ b/results/multiclass/multiclass.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,21 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>1466</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>40691</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>40975</v>
       </c>
     </row>
@@ -472,20 +478,30 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>0.984 (0.984 Â± 0.000)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.779 (0.773 Â± 0.007)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>0.612 (0.600 Â± 0.010)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.000 (1.000 Â± 0.000)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>0.684 (0.676 Â± 0.006)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>0.996 (0.995 Â± 0.001)</t>
         </is>
@@ -504,20 +520,30 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>0.991 (0.982 Â± 0.005)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.850 (0.799 Â± 0.029)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>0.632 (0.589 Â± 0.022)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.000 (0.997 Â± 0.003)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>0.712 (0.666 Â± 0.026)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>1.000 (0.989 Â± 0.009)</t>
         </is>
@@ -536,20 +562,30 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>0.987 (0.974 Â± 0.007)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.830 (0.758 Â± 0.035)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>0.577 (0.526 Â± 0.027)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.000 (1.000 Â± 0.001)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>0.667 (0.604 Â± 0.035)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>1.000 (0.980 Â± 0.014)</t>
         </is>
@@ -568,20 +604,30 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>0.987 (0.973 Â± 0.009)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.876 (0.819 Â± 0.036)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>0.648 (0.598 Â± 0.029)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.000 (1.000 Â± 0.000)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>0.697 (0.650 Â± 0.026)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>0.995 (0.977 Â± 0.010)</t>
         </is>
@@ -600,20 +646,30 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>0.993 (0.985 Â± 0.006)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.868 (0.836 Â± 0.024)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>0.669 (0.610 Â± 0.030)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.000 (1.000 Â± 0.000)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>0.733 (0.699 Â± 0.021)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>1.000 (0.998 Â± 0.005)</t>
         </is>
@@ -632,20 +688,30 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>0.989 (0.976 Â± 0.006)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.786 (0.730 Â± 0.026)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>0.566 (0.532 Â± 0.021)</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.000 (1.000 Â± 0.000)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>0.717 (0.663 Â± 0.028)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>0.788 (0.746 Â± 0.032)</t>
         </is>
@@ -659,27 +725,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.601 (0.557 Â± 0.032)</t>
+          <t>0.613 (0.559 Â± 0.033)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>0.987 (0.980 Â± 0.004)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.888 (0.840 Â± 0.030)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>0.596 (0.594 Â± 0.002)</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.000 (1.000 Â± 0.002)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>0.719 (0.668 Â± 0.030)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.989 (0.986 Â± 0.004)</t>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.989 (0.988 Â± 0.000)</t>
         </is>
       </c>
     </row>
@@ -696,20 +772,30 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>0.994 (0.984 Â± 0.005)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.808 (0.758 Â± 0.031)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>0.652 (0.599 Â± 0.029)</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.000 (1.000 Â± 0.000)</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>0.730 (0.688 Â± 0.022)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>1.000 (0.996 Â± 0.004)</t>
         </is>
@@ -728,20 +814,30 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.658 (0.601 Â± 0.027)</t>
+          <t>0.991 (0.981 Â± 0.007)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.827 (0.777 Â± 0.031)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.649 (0.595 Â± 0.028)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1.000 (0.999 Â± 0.002)</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>0.743 (0.696 Â± 0.023)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>1.000 (0.989 Â± 0.010)</t>
         </is>
@@ -760,20 +856,30 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>0.991 (0.983 Â± 0.005)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.863 (0.776 Â± 0.077)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>0.551 (0.390 Â± 0.135)</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>0.915 (0.706 Â± 0.214)</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>0.665 (0.537 Â± 0.061)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>0.846 (0.721 Â± 0.093)</t>
         </is>
@@ -792,20 +898,30 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>0.987 (0.977 Â± 0.006)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.821 (0.752 Â± 0.033)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>0.285 (0.239 Â± 0.022)</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>0.150 (0.104 Â± 0.022)</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>0.700 (0.647 Â± 0.033)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>0.997 (0.931 Â± 0.029)</t>
         </is>
@@ -824,20 +940,30 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>0.991 (0.976 Â± 0.008)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.838 (0.719 Â± 0.049)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>0.401 (0.306 Â± 0.050)</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>0.601 (0.561 Â± 0.027)</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>0.572 (0.462 Â± 0.100)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>0.994 (0.969 Â± 0.023)</t>
         </is>
@@ -856,20 +982,30 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>0.991 (0.979 Â± 0.006)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.863 (0.793 Â± 0.032)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>0.660 (0.600 Â± 0.030)</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1.000 (1.000 Â± 0.000)</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>0.694 (0.657 Â± 0.020)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>1.000 (0.989 Â± 0.007)</t>
         </is>
@@ -888,20 +1024,30 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>0.987 (0.981 Â± 0.006)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.885 (0.850 Â± 0.022)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>0.606 (0.589 Â± 0.012)</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1.000 (1.000 Â± 0.000)</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>0.721 (0.677 Â± 0.035)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>1.000 (0.996 Â± 0.004)</t>
         </is>
@@ -915,27 +1061,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.619 (0.561 Â± 0.035)</t>
+          <t>0.619 (0.562 Â± 0.035)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.666 (0.601 Â± 0.027)</t>
+          <t>0.994 (0.983 Â± 0.005)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>0.888 (0.846 Â± 0.023)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.666 (0.599 Â± 0.026)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>1.000 (0.999 Â± 0.002)</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>0.725 (0.694 Â± 0.022)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.000 (0.993 Â± 0.006)</t>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1.000 (0.995 Â± 0.005)</t>
         </is>
       </c>
     </row>
@@ -952,20 +1108,30 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>0.987 (0.970 Â± 0.017)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.880 (0.798 Â± 0.034)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>0.663 (0.607 Â± 0.027)</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1.000 (0.983 Â± 0.076)</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>0.720 (0.689 Â± 0.021)</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>1.000 (0.994 Â± 0.006)</t>
         </is>
@@ -982,7 +1148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1000,15 +1166,21 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>1466</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>40691</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>40975</v>
       </c>
     </row>
@@ -1025,20 +1197,30 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>00:04:50 (00:05:02 Â± 00:00:08)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>00:02:36 (00:04:31 Â± 00:01:14)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>00:04:49 (00:05:33 Â± 00:01:05)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>00:04:49 (00:05:20 Â± 00:00:23)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>00:04:49 (00:05:20 Â± 00:00:46)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>00:03:52 (00:05:00 Â± 00:00:37)</t>
         </is>
@@ -1057,20 +1239,30 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>00:00:25 (00:01:27 Â± 00:00:47)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>00:00:11 (00:00:17 Â± 00:00:02)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>00:00:29 (00:00:34 Â± 00:00:05)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>00:00:23 (00:00:25 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>00:02:12 (00:03:39 Â± 00:00:31)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>00:00:17 (00:00:26 Â± 00:00:09)</t>
         </is>
@@ -1089,20 +1281,30 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>00:00:46 (00:01:04 Â± 00:00:12)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>00:00:26 (00:00:43 Â± 00:00:10)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>00:00:30 (00:00:41 Â± 00:00:10)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>00:01:03 (00:01:23 Â± 00:00:15)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>00:00:30 (00:00:44 Â± 00:00:10)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>00:00:50 (00:01:17 Â± 00:00:14)</t>
         </is>
@@ -1121,20 +1323,30 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>00:05:11 (00:05:22 Â± 00:00:14)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>00:05:12 (00:05:19 Â± 00:00:08)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>00:05:05 (00:05:14 Â± 00:00:04)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>00:05:04 (00:05:12 Â± 00:00:03)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>00:05:06 (00:05:15 Â± 00:00:05)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>00:05:07 (00:05:13 Â± 00:00:03)</t>
         </is>
@@ -1153,20 +1365,30 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>00:04:56 (00:05:04 Â± 00:00:04)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>00:04:54 (00:04:58 Â± 00:00:02)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>00:05:00 (00:05:04 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>00:04:58 (00:05:02 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>00:04:57 (00:05:02 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>00:04:58 (00:05:02 Â± 00:00:02)</t>
         </is>
@@ -1185,20 +1407,30 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>00:05:00 (00:05:02 Â± 00:00:02)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>00:05:00 (00:05:04 Â± 00:00:02)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>00:05:01 (00:05:04 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>00:05:00 (00:05:01 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>00:05:01 (00:05:05 Â± 00:00:03)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>00:05:00 (00:05:03 Â± 00:00:02)</t>
         </is>
@@ -1212,27 +1444,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>00:04:56 (00:06:08 Â± 00:03:33)</t>
+          <t>00:04:59 (00:06:27 Â± 00:02:14)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:04:57 (00:08:41 Â± 00:03:44)</t>
+          <t>00:04:22 (00:06:07 Â± 00:01:49)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>00:02:27 (00:05:19 Â± 00:02:42)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>00:04:57 (00:07:27 Â± 00:03:31)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>00:04:45 (00:07:12 Â± 00:02:36)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>00:05:01 (00:05:37 Â± 00:01:02)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>00:05:00 (00:11:11 Â± 00:07:41)</t>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>00:05:00 (00:06:51 Â± 00:01:55)</t>
         </is>
       </c>
     </row>
@@ -1249,20 +1491,30 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>00:04:59 (00:05:01 Â± 00:00:02)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>00:04:59 (00:05:01 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>00:04:59 (00:04:59 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>00:05:00 (00:05:01 Â± 00:00:02)</t>
         </is>
@@ -1281,7 +1533,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:21:24 Â± 01:13:42)</t>
+          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1291,10 +1543,20 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>00:04:29 (00:04:30 Â± 00:00:02)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
         </is>
@@ -1313,20 +1575,30 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>00:05:05 (00:05:06 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>00:05:01 (00:05:05 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>00:05:01 (00:05:05 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>00:05:05 (00:05:06 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>00:05:05 (00:05:06 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>00:05:05 (00:05:06 Â± 00:00:00)</t>
         </is>
@@ -1345,20 +1617,30 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>00:02:10 (00:02:34 Â± 00:00:17)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>00:02:01 (00:02:33 Â± 00:00:13)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>00:01:57 (00:02:36 Â± 00:00:16)</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>00:02:44 (00:02:51 Â± 00:00:04)</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>00:01:37 (00:02:28 Â± 00:00:20)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>00:01:53 (00:02:17 Â± 00:00:14)</t>
         </is>
@@ -1377,20 +1659,30 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>00:00:02 (00:00:03 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>00:00:02 (00:00:03 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>00:00:01 (00:00:02 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>00:00:03 (00:00:07 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:05 Â± 00:00:05)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:02 Â± 00:00:00)</t>
         </is>
@@ -1409,20 +1701,30 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>00:00:41 (00:00:45 Â± 00:00:01)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>00:00:29 (00:00:32 Â± 00:00:01)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>00:00:49 (00:00:52 Â± 00:00:03)</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>00:00:56 (00:00:59 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>00:00:37 (00:00:40 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>00:00:23 (00:00:28 Â± 00:00:04)</t>
         </is>
@@ -1441,20 +1743,30 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>00:00:01 (00:04:11 Â± 00:01:42)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>00:00:27 (00:00:28 Â± 00:00:02)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>00:02:04 (00:04:07 Â± 00:01:10)</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>00:01:08 (00:01:14 Â± 00:00:08)</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>00:00:57 (00:04:00 Â± 00:01:32)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>00:01:56 (00:01:57 Â± 00:00:00)</t>
         </is>
@@ -1468,27 +1780,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>00:13:07 (00:13:36 Â± 00:00:29)</t>
+          <t>00:00:07 (00:00:08 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:33:37 (00:35:59 Â± 00:01:27)</t>
+          <t>00:01:05 (00:01:12 Â± 00:00:04)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:09:37 (00:10:09 Â± 00:00:22)</t>
+          <t>00:00:16 (00:00:17 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>00:20:07 (00:21:53 Â± 00:01:06)</t>
+          <t>00:00:18 (00:00:19 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>00:15:01 (00:15:55 Â± 00:00:24)</t>
+          <t>00:00:54 (00:00:55 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>00:00:23 (00:00:24 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>00:00:09 (00:00:10 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1505,20 +1827,30 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>00:00:30 (00:01:57 Â± 00:01:31)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>00:00:21 (00:02:46 Â± 00:01:49)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>00:05:00 (00:05:05 Â± 00:00:05)</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>00:05:01 (00:05:19 Â± 00:00:13)</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>00:05:01 (00:05:08 Â± 00:00:07)</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>00:05:02 (00:05:14 Â± 00:00:12)</t>
         </is>
@@ -1535,7 +1867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1553,15 +1885,21 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>1466</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>40691</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>40975</v>
       </c>
     </row>
@@ -1578,20 +1916,30 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>00:00:04 (00:00:06 Â± 00:00:01)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>00:00:01 (00:00:07 Â± 00:00:04)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>00:00:00 (00:00:03 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:05 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:04 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:05 Â± 00:00:02)</t>
         </is>
@@ -1628,6 +1976,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1647,15 +2005,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
@@ -1674,20 +2042,30 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>00:00:00 (00:00:01 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:02 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
         </is>
@@ -1706,20 +2084,30 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>00:00:00 (00:00:05 Â± 00:00:02)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>00:00:01 (00:00:03 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:03 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:03 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>00:00:02 (00:00:10 Â± 00:00:08)</t>
         </is>
@@ -1756,6 +2144,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1788,6 +2186,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1820,6 +2228,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1852,6 +2270,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1884,6 +2312,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1916,6 +2354,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1948,6 +2396,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1980,6 +2438,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2012,6 +2480,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2044,6 +2522,16 @@
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2072,6 +2560,16 @@
         </is>
       </c>
       <c r="F17" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
@@ -2088,7 +2586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2106,15 +2604,21 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>1466</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>40691</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>40975</v>
       </c>
     </row>
@@ -2149,6 +2653,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2181,6 +2695,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2213,6 +2737,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2245,6 +2779,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2277,6 +2821,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2309,6 +2863,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2318,27 +2882,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[5, 29]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[2, 3, 5, 7, 11, 13, 17, 23, 29, 31, 37, 41, 43, 47, 59, 61, 67, 71]</t>
+          <t>[2, 11, 13, 17, 31, 41]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>[2, 3, 5, 7, 11, 13, 17, 29, 31, 37, 41, 43, 47, 59, 61, 67, 71]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>[11, 31]</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[2, 5, 11, 13, 17, 19, 23, 29, 31, 37, 41, 47, 59, 61, 67, 71]</t>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[2, 3, 5, 11, 13, 17, 19, 23, 29, 31, 37, 41, 47, 59, 61, 67, 71]</t>
         </is>
       </c>
     </row>
@@ -2373,6 +2947,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2392,7 +2976,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2401,6 +2985,16 @@
         </is>
       </c>
       <c r="F10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2437,6 +3031,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2469,6 +3073,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2501,6 +3115,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2533,6 +3157,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2547,20 +3181,30 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>[19, 23, 29, 31, 37, 41, 43, 47, 53, 59, 61, 67, 71]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>[11, 13, 17, 19, 23, 29, 31, 37, 41, 43, 47, 53, 59, 61, 67, 71]</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>[11, 13, 17, 19, 23, 29, 31, 37, 41, 43, 47, 53, 59, 61, 67, 71]</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[11, 13, 17, 19, 23, 29, 31, 37, 41, 43, 47, 53, 59, 61, 67, 71]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>[13, 17, 19, 23, 29, 31, 37, 41, 43, 47, 53, 59, 61, 67, 71]</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>[7, 11, 13, 17, 19, 23, 29, 31, 37, 41, 43, 47, 53, 59, 61, 67, 71]</t>
         </is>
@@ -2597,6 +3241,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2611,12 +3265,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[71]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[71]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2625,6 +3279,16 @@
         </is>
       </c>
       <c r="F17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2641,7 +3305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2659,15 +3323,21 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>1466</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>40691</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>40975</v>
       </c>
     </row>
@@ -2681,15 +3351,21 @@
         <v>11</v>
       </c>
       <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
         <v>53</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>2</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>43</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2703,15 +3379,21 @@
         <v>37</v>
       </c>
       <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23</v>
+      </c>
+      <c r="E3" t="n">
         <v>47</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>67</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2725,15 +3407,21 @@
         <v>37</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
         <v>59</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2747,15 +3435,21 @@
         <v>37</v>
       </c>
       <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>61</v>
+      </c>
+      <c r="E5" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>2</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>67</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2769,17 +3463,23 @@
         <v>17</v>
       </c>
       <c r="C6" t="n">
+        <v>61</v>
+      </c>
+      <c r="D6" t="n">
+        <v>53</v>
+      </c>
+      <c r="E6" t="n">
         <v>43</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2791,15 +3491,21 @@
         <v>37</v>
       </c>
       <c r="C7" t="n">
+        <v>43</v>
+      </c>
+      <c r="D7" t="n">
+        <v>61</v>
+      </c>
+      <c r="E7" t="n">
         <v>37</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>2</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>5</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>19</v>
       </c>
     </row>
@@ -2813,15 +3519,21 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>61</v>
+      </c>
+      <c r="E8" t="n">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>2</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>67</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>43</v>
       </c>
     </row>
@@ -2835,17 +3547,23 @@
         <v>37</v>
       </c>
       <c r="C9" t="n">
+        <v>43</v>
+      </c>
+      <c r="D9" t="n">
+        <v>61</v>
+      </c>
+      <c r="E9" t="n">
         <v>13</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>67</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
       </c>
+      <c r="G9" t="n">
+        <v>67</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2857,15 +3575,21 @@
         <v>7</v>
       </c>
       <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>29</v>
+      </c>
+      <c r="E10" t="n">
         <v>47</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>37</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2879,15 +3603,21 @@
         <v>13</v>
       </c>
       <c r="C11" t="n">
+        <v>43</v>
+      </c>
+      <c r="D11" t="n">
+        <v>61</v>
+      </c>
+      <c r="E11" t="n">
         <v>23</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
         <v>13</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>37</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>67</v>
       </c>
     </row>
@@ -2901,15 +3631,21 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>29</v>
+      </c>
+      <c r="E12" t="n">
         <v>23</v>
       </c>
-      <c r="D12" t="n">
+      <c r="F12" t="n">
         <v>17</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>17</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2923,15 +3659,21 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
+        <v>43</v>
+      </c>
+      <c r="D13" t="n">
+        <v>61</v>
+      </c>
+      <c r="E13" t="n">
         <v>47</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F13" t="n">
         <v>29</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>61</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2945,15 +3687,21 @@
         <v>37</v>
       </c>
       <c r="C14" t="n">
+        <v>31</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" t="n">
         <v>47</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F14" t="n">
         <v>2</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>5</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2967,17 +3715,23 @@
         <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2989,15 +3743,21 @@
         <v>61</v>
       </c>
       <c r="C16" t="n">
+        <v>11</v>
+      </c>
+      <c r="D16" t="n">
+        <v>61</v>
+      </c>
+      <c r="E16" t="n">
         <v>13</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F16" t="n">
         <v>2</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>37</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3014,12 +3774,18 @@
         <v>43</v>
       </c>
       <c r="D17" t="n">
+        <v>53</v>
+      </c>
+      <c r="E17" t="n">
+        <v>43</v>
+      </c>
+      <c r="F17" t="n">
         <v>2</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>19</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>5</v>
       </c>
     </row>

--- a/results/multiclass/multiclass.xlsx
+++ b/results/multiclass/multiclass.xlsx
@@ -473,37 +473,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.552 (0.551 Â± 0.001)</t>
+          <t>0.552 (0.551 ± 0.001)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.984 (0.984 Â± 0.000)</t>
+          <t>0.984 (0.984 ± 0.000)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.779 (0.773 Â± 0.007)</t>
+          <t>0.779 (0.773 ± 0.007)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.612 (0.600 Â± 0.010)</t>
+          <t>0.612 (0.600 ± 0.010)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.000)</t>
+          <t>1.000 (1.000 ± 0.000)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.684 (0.676 Â± 0.006)</t>
+          <t>0.684 (0.676 ± 0.006)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.996 (0.995 Â± 0.001)</t>
+          <t>0.996 (0.995 ± 0.001)</t>
         </is>
       </c>
     </row>
@@ -515,37 +515,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.615 (0.552 Â± 0.024)</t>
+          <t>0.615 (0.552 ± 0.024)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.991 (0.982 Â± 0.005)</t>
+          <t>0.991 (0.982 ± 0.005)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.850 (0.799 Â± 0.029)</t>
+          <t>0.850 (0.799 ± 0.029)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.632 (0.589 Â± 0.022)</t>
+          <t>0.632 (0.589 ± 0.022)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.000 (0.997 Â± 0.003)</t>
+          <t>1.000 (0.997 ± 0.003)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.712 (0.666 Â± 0.026)</t>
+          <t>0.712 (0.666 ± 0.026)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.000 (0.989 Â± 0.009)</t>
+          <t>1.000 (0.989 ± 0.009)</t>
         </is>
       </c>
     </row>
@@ -557,37 +557,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.535 (0.466 Â± 0.037)</t>
+          <t>0.535 (0.466 ± 0.037)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.987 (0.974 Â± 0.007)</t>
+          <t>0.987 (0.974 ± 0.007)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.830 (0.758 Â± 0.035)</t>
+          <t>0.830 (0.758 ± 0.035)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.577 (0.526 Â± 0.027)</t>
+          <t>0.577 (0.526 ± 0.027)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.001)</t>
+          <t>1.000 (1.000 ± 0.001)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.667 (0.604 Â± 0.035)</t>
+          <t>0.667 (0.604 ± 0.035)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.000 (0.980 Â± 0.014)</t>
+          <t>1.000 (0.980 ± 0.014)</t>
         </is>
       </c>
     </row>
@@ -599,37 +599,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.589 (0.529 Â± 0.029)</t>
+          <t>0.589 (0.529 ± 0.029)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.987 (0.973 Â± 0.009)</t>
+          <t>0.987 (0.973 ± 0.009)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.876 (0.819 Â± 0.036)</t>
+          <t>0.876 (0.819 ± 0.036)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.648 (0.598 Â± 0.029)</t>
+          <t>0.648 (0.598 ± 0.029)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.000)</t>
+          <t>1.000 (1.000 ± 0.000)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.697 (0.650 Â± 0.026)</t>
+          <t>0.697 (0.650 ± 0.026)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.995 (0.977 Â± 0.010)</t>
+          <t>0.995 (0.977 ± 0.010)</t>
         </is>
       </c>
     </row>
@@ -641,37 +641,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.631 (0.569 Â± 0.031)</t>
+          <t>0.631 (0.569 ± 0.031)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.993 (0.985 Â± 0.006)</t>
+          <t>0.993 (0.985 ± 0.006)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.868 (0.836 Â± 0.024)</t>
+          <t>0.868 (0.836 ± 0.024)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.669 (0.610 Â± 0.030)</t>
+          <t>0.669 (0.610 ± 0.030)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.000)</t>
+          <t>1.000 (1.000 ± 0.000)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.733 (0.699 Â± 0.021)</t>
+          <t>0.733 (0.699 ± 0.021)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.000 (0.998 Â± 0.005)</t>
+          <t>1.000 (0.998 ± 0.005)</t>
         </is>
       </c>
     </row>
@@ -683,37 +683,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.611 (0.564 Â± 0.026)</t>
+          <t>0.611 (0.564 ± 0.026)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.989 (0.976 Â± 0.006)</t>
+          <t>0.989 (0.976 ± 0.006)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.786 (0.730 Â± 0.026)</t>
+          <t>0.786 (0.730 ± 0.026)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.566 (0.532 Â± 0.021)</t>
+          <t>0.566 (0.532 ± 0.021)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.000)</t>
+          <t>1.000 (1.000 ± 0.000)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.717 (0.663 Â± 0.028)</t>
+          <t>0.717 (0.663 ± 0.028)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.788 (0.746 Â± 0.032)</t>
+          <t>0.788 (0.746 ± 0.032)</t>
         </is>
       </c>
     </row>
@@ -725,37 +725,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.613 (0.559 Â± 0.033)</t>
+          <t>0.613 (0.559 ± 0.033)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.987 (0.980 Â± 0.004)</t>
+          <t>0.987 (0.980 ± 0.004)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.888 (0.840 Â± 0.030)</t>
+          <t>0.888 (0.840 ± 0.030)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.596 (0.594 Â± 0.002)</t>
+          <t>0.596 (0.594 ± 0.002)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.002)</t>
+          <t>1.000 (1.000 ± 0.002)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.719 (0.668 Â± 0.030)</t>
+          <t>0.719 (0.668 ± 0.030)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.989 (0.988 Â± 0.000)</t>
+          <t>0.989 (0.988 ± 0.000)</t>
         </is>
       </c>
     </row>
@@ -767,37 +767,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.604 (0.552 Â± 0.027)</t>
+          <t>0.604 (0.552 ± 0.027)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.994 (0.984 Â± 0.005)</t>
+          <t>0.994 (0.984 ± 0.005)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.808 (0.758 Â± 0.031)</t>
+          <t>0.808 (0.758 ± 0.031)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.652 (0.599 Â± 0.029)</t>
+          <t>0.652 (0.599 ± 0.029)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.000)</t>
+          <t>1.000 (1.000 ± 0.000)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.730 (0.688 Â± 0.022)</t>
+          <t>0.730 (0.688 ± 0.022)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.000 (0.996 Â± 0.004)</t>
+          <t>1.000 (0.996 ± 0.004)</t>
         </is>
       </c>
     </row>
@@ -809,37 +809,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.618 (0.568 Â± 0.029)</t>
+          <t>0.618 (0.568 ± 0.029)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.991 (0.981 Â± 0.007)</t>
+          <t>0.991 (0.981 ± 0.007)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.827 (0.777 Â± 0.031)</t>
+          <t>0.827 (0.777 ± 0.031)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.649 (0.595 Â± 0.028)</t>
+          <t>0.649 (0.595 ± 0.028)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.000 (0.999 Â± 0.002)</t>
+          <t>1.000 (0.999 ± 0.002)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.743 (0.696 Â± 0.023)</t>
+          <t>0.743 (0.696 ± 0.023)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.000 (0.989 Â± 0.010)</t>
+          <t>1.000 (0.989 ± 0.010)</t>
         </is>
       </c>
     </row>
@@ -851,37 +851,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.521 (0.348 Â± 0.095)</t>
+          <t>0.521 (0.348 ± 0.095)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.991 (0.983 Â± 0.005)</t>
+          <t>0.991 (0.983 ± 0.005)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.863 (0.776 Â± 0.077)</t>
+          <t>0.863 (0.776 ± 0.077)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.551 (0.390 Â± 0.135)</t>
+          <t>0.551 (0.390 ± 0.135)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.915 (0.706 Â± 0.214)</t>
+          <t>0.915 (0.706 ± 0.214)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.665 (0.537 Â± 0.061)</t>
+          <t>0.665 (0.537 ± 0.061)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.846 (0.721 Â± 0.093)</t>
+          <t>0.846 (0.721 ± 0.093)</t>
         </is>
       </c>
     </row>
@@ -893,37 +893,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.461 (0.415 Â± 0.029)</t>
+          <t>0.461 (0.415 ± 0.029)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.987 (0.977 Â± 0.006)</t>
+          <t>0.987 (0.977 ± 0.006)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.821 (0.752 Â± 0.033)</t>
+          <t>0.821 (0.752 ± 0.033)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.285 (0.239 Â± 0.022)</t>
+          <t>0.285 (0.239 ± 0.022)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.150 (0.104 Â± 0.022)</t>
+          <t>0.150 (0.104 ± 0.022)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.700 (0.647 Â± 0.033)</t>
+          <t>0.700 (0.647 ± 0.033)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.997 (0.931 Â± 0.029)</t>
+          <t>0.997 (0.931 ± 0.029)</t>
         </is>
       </c>
     </row>
@@ -935,37 +935,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.591 (0.550 Â± 0.026)</t>
+          <t>0.591 (0.550 ± 0.026)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.991 (0.976 Â± 0.008)</t>
+          <t>0.991 (0.976 ± 0.008)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.838 (0.719 Â± 0.049)</t>
+          <t>0.838 (0.719 ± 0.049)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.401 (0.306 Â± 0.050)</t>
+          <t>0.401 (0.306 ± 0.050)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.601 (0.561 Â± 0.027)</t>
+          <t>0.601 (0.561 ± 0.027)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.572 (0.462 Â± 0.100)</t>
+          <t>0.572 (0.462 ± 0.100)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.994 (0.969 Â± 0.023)</t>
+          <t>0.994 (0.969 ± 0.023)</t>
         </is>
       </c>
     </row>
@@ -977,37 +977,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.618 (0.565 Â± 0.029)</t>
+          <t>0.618 (0.565 ± 0.029)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.991 (0.979 Â± 0.006)</t>
+          <t>0.991 (0.979 ± 0.006)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.863 (0.793 Â± 0.032)</t>
+          <t>0.863 (0.793 ± 0.032)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.660 (0.600 Â± 0.030)</t>
+          <t>0.660 (0.600 ± 0.030)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.000)</t>
+          <t>1.000 (1.000 ± 0.000)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.694 (0.657 Â± 0.020)</t>
+          <t>0.694 (0.657 ± 0.020)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1.000 (0.989 Â± 0.007)</t>
+          <t>1.000 (0.989 ± 0.007)</t>
         </is>
       </c>
     </row>
@@ -1019,37 +1019,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.595 (0.564 Â± 0.037)</t>
+          <t>0.595 (0.564 ± 0.037)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.987 (0.981 Â± 0.006)</t>
+          <t>0.987 (0.981 ± 0.006)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.885 (0.850 Â± 0.022)</t>
+          <t>0.885 (0.850 ± 0.022)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.606 (0.589 Â± 0.012)</t>
+          <t>0.606 (0.589 ± 0.012)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.000)</t>
+          <t>1.000 (1.000 ± 0.000)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.721 (0.677 Â± 0.035)</t>
+          <t>0.721 (0.677 ± 0.035)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.000 (0.996 Â± 0.004)</t>
+          <t>1.000 (0.996 ± 0.004)</t>
         </is>
       </c>
     </row>
@@ -1061,37 +1061,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.619 (0.562 Â± 0.035)</t>
+          <t>0.619 (0.562 ± 0.035)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.994 (0.983 Â± 0.005)</t>
+          <t>0.994 (0.983 ± 0.005)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.888 (0.846 Â± 0.023)</t>
+          <t>0.888 (0.846 ± 0.023)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.666 (0.599 Â± 0.026)</t>
+          <t>0.666 (0.599 ± 0.026)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.000 (0.999 Â± 0.002)</t>
+          <t>1.000 (0.999 ± 0.002)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.725 (0.694 Â± 0.022)</t>
+          <t>0.725 (0.694 ± 0.022)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.000 (0.995 Â± 0.005)</t>
+          <t>1.000 (0.995 ± 0.005)</t>
         </is>
       </c>
     </row>
@@ -1103,37 +1103,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.613 (0.561 Â± 0.028)</t>
+          <t>0.613 (0.561 ± 0.028)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.987 (0.970 Â± 0.017)</t>
+          <t>0.987 (0.970 ± 0.017)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.880 (0.798 Â± 0.034)</t>
+          <t>0.880 (0.798 ± 0.034)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.663 (0.607 Â± 0.027)</t>
+          <t>0.663 (0.607 ± 0.027)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.000 (0.983 Â± 0.076)</t>
+          <t>1.000 (0.983 ± 0.076)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.720 (0.689 Â± 0.021)</t>
+          <t>0.720 (0.689 ± 0.021)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.000 (0.994 Â± 0.006)</t>
+          <t>1.000 (0.994 ± 0.006)</t>
         </is>
       </c>
     </row>
@@ -1192,37 +1192,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00:01:36 (00:02:40 Â± 00:01:26)</t>
+          <t>00:01:36 (00:02:40 ± 00:01:26)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:04:50 (00:05:02 Â± 00:00:08)</t>
+          <t>00:04:50 (00:05:02 ± 00:00:08)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:02:36 (00:04:31 Â± 00:01:14)</t>
+          <t>00:02:36 (00:04:31 ± 00:01:14)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>00:04:49 (00:05:33 Â± 00:01:05)</t>
+          <t>00:04:49 (00:05:33 ± 00:01:05)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>00:04:49 (00:05:20 Â± 00:00:23)</t>
+          <t>00:04:49 (00:05:20 ± 00:00:23)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>00:04:49 (00:05:20 Â± 00:00:46)</t>
+          <t>00:04:49 (00:05:20 ± 00:00:46)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>00:03:52 (00:05:00 Â± 00:00:37)</t>
+          <t>00:03:52 (00:05:00 ± 00:00:37)</t>
         </is>
       </c>
     </row>
@@ -1234,37 +1234,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>00:00:14 (00:00:17 Â± 00:00:01)</t>
+          <t>00:00:14 (00:00:17 ± 00:00:01)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00:25 (00:01:27 Â± 00:00:47)</t>
+          <t>00:00:25 (00:01:27 ± 00:00:47)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:11 (00:00:17 Â± 00:00:02)</t>
+          <t>00:00:11 (00:00:17 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>00:00:29 (00:00:34 Â± 00:00:05)</t>
+          <t>00:00:29 (00:00:34 ± 00:00:05)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>00:00:23 (00:00:25 Â± 00:00:01)</t>
+          <t>00:00:23 (00:00:25 ± 00:00:01)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>00:02:12 (00:03:39 Â± 00:00:31)</t>
+          <t>00:02:12 (00:03:39 ± 00:00:31)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>00:00:17 (00:00:26 Â± 00:00:09)</t>
+          <t>00:00:17 (00:00:26 ± 00:00:09)</t>
         </is>
       </c>
     </row>
@@ -1276,37 +1276,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>00:00:27 (00:00:36 Â± 00:00:12)</t>
+          <t>00:00:27 (00:00:36 ± 00:00:12)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:46 (00:01:04 Â± 00:00:12)</t>
+          <t>00:00:46 (00:01:04 ± 00:00:12)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:26 (00:00:43 Â± 00:00:10)</t>
+          <t>00:00:26 (00:00:43 ± 00:00:10)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>00:00:30 (00:00:41 Â± 00:00:10)</t>
+          <t>00:00:30 (00:00:41 ± 00:00:10)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>00:01:03 (00:01:23 Â± 00:00:15)</t>
+          <t>00:01:03 (00:01:23 ± 00:00:15)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>00:00:30 (00:00:44 Â± 00:00:10)</t>
+          <t>00:00:30 (00:00:44 ± 00:00:10)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>00:00:50 (00:01:17 Â± 00:00:14)</t>
+          <t>00:00:50 (00:01:17 ± 00:00:14)</t>
         </is>
       </c>
     </row>
@@ -1318,37 +1318,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>00:05:06 (00:05:13 Â± 00:00:04)</t>
+          <t>00:05:06 (00:05:13 ± 00:00:04)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:11 (00:05:22 Â± 00:00:14)</t>
+          <t>00:05:11 (00:05:22 ± 00:00:14)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:05:12 (00:05:19 Â± 00:00:08)</t>
+          <t>00:05:12 (00:05:19 ± 00:00:08)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>00:05:05 (00:05:14 Â± 00:00:04)</t>
+          <t>00:05:05 (00:05:14 ± 00:00:04)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>00:05:04 (00:05:12 Â± 00:00:03)</t>
+          <t>00:05:04 (00:05:12 ± 00:00:03)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>00:05:06 (00:05:15 Â± 00:00:05)</t>
+          <t>00:05:06 (00:05:15 ± 00:00:05)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>00:05:07 (00:05:13 Â± 00:00:03)</t>
+          <t>00:05:07 (00:05:13 ± 00:00:03)</t>
         </is>
       </c>
     </row>
@@ -1360,37 +1360,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>00:04:56 (00:05:00 Â± 00:00:02)</t>
+          <t>00:04:56 (00:05:00 ± 00:00:02)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:56 (00:05:04 Â± 00:00:04)</t>
+          <t>00:04:56 (00:05:04 ± 00:00:04)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:04:54 (00:04:58 Â± 00:00:02)</t>
+          <t>00:04:54 (00:04:58 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:04 Â± 00:00:02)</t>
+          <t>00:05:00 (00:05:04 ± 00:00:02)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>00:04:58 (00:05:02 Â± 00:00:02)</t>
+          <t>00:04:58 (00:05:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>00:04:57 (00:05:02 Â± 00:00:02)</t>
+          <t>00:04:57 (00:05:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>00:04:58 (00:05:02 Â± 00:00:02)</t>
+          <t>00:04:58 (00:05:02 ± 00:00:02)</t>
         </is>
       </c>
     </row>
@@ -1402,37 +1402,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:04 Â± 00:00:02)</t>
+          <t>00:05:01 (00:05:04 ± 00:00:02)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:02 Â± 00:00:02)</t>
+          <t>00:05:00 (00:05:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:04 Â± 00:00:02)</t>
+          <t>00:05:00 (00:05:04 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:04 Â± 00:00:02)</t>
+          <t>00:05:01 (00:05:04 ± 00:00:02)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:01 Â± 00:00:01)</t>
+          <t>00:05:00 (00:05:01 ± 00:00:01)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:05 Â± 00:00:03)</t>
+          <t>00:05:01 (00:05:05 ± 00:00:03)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:03 Â± 00:00:02)</t>
+          <t>00:05:00 (00:05:03 ± 00:00:02)</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1444,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>00:04:59 (00:06:27 Â± 00:02:14)</t>
+          <t>00:04:59 (00:06:27 ± 00:02:14)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:04:22 (00:06:07 Â± 00:01:49)</t>
+          <t>00:04:22 (00:06:07 ± 00:01:49)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:02:27 (00:05:19 Â± 00:02:42)</t>
+          <t>00:02:27 (00:05:19 ± 00:02:42)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>00:04:57 (00:07:27 Â± 00:03:31)</t>
+          <t>00:04:57 (00:07:27 ± 00:03:31)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>00:04:45 (00:07:12 Â± 00:02:36)</t>
+          <t>00:04:45 (00:07:12 ± 00:02:36)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:37 Â± 00:01:02)</t>
+          <t>00:05:01 (00:05:37 ± 00:01:02)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>00:05:00 (00:06:51 Â± 00:01:55)</t>
+          <t>00:05:00 (00:06:51 ± 00:01:55)</t>
         </is>
       </c>
     </row>
@@ -1486,37 +1486,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+          <t>00:04:59 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:01 Â± 00:00:02)</t>
+          <t>00:04:59 (00:05:01 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+          <t>00:04:59 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:01 Â± 00:00:01)</t>
+          <t>00:04:59 (00:05:01 ± 00:00:01)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:04:59 Â± 00:00:00)</t>
+          <t>00:04:59 (00:04:59 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+          <t>00:04:59 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:01 Â± 00:00:02)</t>
+          <t>00:05:00 (00:05:01 ± 00:00:02)</t>
         </is>
       </c>
     </row>
@@ -1528,37 +1528,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
+          <t>00:04:29 (00:04:29 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
+          <t>00:04:29 (00:04:29 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
+          <t>00:04:29 (00:04:29 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:30 Â± 00:00:02)</t>
+          <t>00:04:29 (00:04:30 ± 00:00:02)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
+          <t>00:04:29 (00:04:29 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
+          <t>00:04:29 (00:04:29 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
+          <t>00:04:29 (00:04:29 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1570,37 +1570,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:05 Â± 00:00:01)</t>
+          <t>00:05:00 (00:05:05 ± 00:00:01)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:05 (00:05:06 Â± 00:00:00)</t>
+          <t>00:05:05 (00:05:06 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:05 Â± 00:00:00)</t>
+          <t>00:05:01 (00:05:05 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:05 Â± 00:00:01)</t>
+          <t>00:05:01 (00:05:05 ± 00:00:01)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>00:05:05 (00:05:06 Â± 00:00:01)</t>
+          <t>00:05:05 (00:05:06 ± 00:00:01)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>00:05:05 (00:05:06 Â± 00:00:00)</t>
+          <t>00:05:05 (00:05:06 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>00:05:05 (00:05:06 Â± 00:00:00)</t>
+          <t>00:05:05 (00:05:06 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1612,37 +1612,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>00:02:15 (00:03:00 Â± 00:00:55)</t>
+          <t>00:02:15 (00:03:00 ± 00:00:55)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:02:10 (00:02:34 Â± 00:00:17)</t>
+          <t>00:02:10 (00:02:34 ± 00:00:17)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:02:01 (00:02:33 Â± 00:00:13)</t>
+          <t>00:02:01 (00:02:33 ± 00:00:13)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>00:01:57 (00:02:36 Â± 00:00:16)</t>
+          <t>00:01:57 (00:02:36 ± 00:00:16)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>00:02:44 (00:02:51 Â± 00:00:04)</t>
+          <t>00:02:44 (00:02:51 ± 00:00:04)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>00:01:37 (00:02:28 Â± 00:00:20)</t>
+          <t>00:01:37 (00:02:28 ± 00:00:20)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>00:01:53 (00:02:17 Â± 00:00:14)</t>
+          <t>00:01:53 (00:02:17 ± 00:00:14)</t>
         </is>
       </c>
     </row>
@@ -1654,37 +1654,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:02 (00:00:03 Â± 00:00:00)</t>
+          <t>00:00:02 (00:00:03 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:02 (00:00:03 Â± 00:00:00)</t>
+          <t>00:00:02 (00:00:03 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:02)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>00:00:03 (00:00:07 Â± 00:00:02)</t>
+          <t>00:00:03 (00:00:07 ± 00:00:02)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:05 Â± 00:00:05)</t>
+          <t>00:00:01 (00:00:05 ± 00:00:05)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1696,37 +1696,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>00:00:23 (00:00:25 Â± 00:00:01)</t>
+          <t>00:00:23 (00:00:25 ± 00:00:01)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:00:41 (00:00:45 Â± 00:00:01)</t>
+          <t>00:00:41 (00:00:45 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:29 (00:00:32 Â± 00:00:01)</t>
+          <t>00:00:29 (00:00:32 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>00:00:49 (00:00:52 Â± 00:00:03)</t>
+          <t>00:00:49 (00:00:52 ± 00:00:03)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>00:00:56 (00:00:59 Â± 00:00:01)</t>
+          <t>00:00:56 (00:00:59 ± 00:00:01)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>00:00:37 (00:00:40 Â± 00:00:02)</t>
+          <t>00:00:37 (00:00:40 ± 00:00:02)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>00:00:23 (00:00:28 Â± 00:00:04)</t>
+          <t>00:00:23 (00:00:28 ± 00:00:04)</t>
         </is>
       </c>
     </row>
@@ -1738,37 +1738,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>00:02:13 (00:04:13 Â± 00:01:09)</t>
+          <t>00:02:13 (00:04:13 ± 00:01:09)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:00:01 (00:04:11 Â± 00:01:42)</t>
+          <t>00:00:01 (00:04:11 ± 00:01:42)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:27 (00:00:28 Â± 00:00:02)</t>
+          <t>00:00:27 (00:00:28 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>00:02:04 (00:04:07 Â± 00:01:10)</t>
+          <t>00:02:04 (00:04:07 ± 00:01:10)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>00:01:08 (00:01:14 Â± 00:00:08)</t>
+          <t>00:01:08 (00:01:14 ± 00:00:08)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>00:00:57 (00:04:00 Â± 00:01:32)</t>
+          <t>00:00:57 (00:04:00 ± 00:01:32)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>00:01:56 (00:01:57 Â± 00:00:00)</t>
+          <t>00:01:56 (00:01:57 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1780,37 +1780,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>00:00:07 (00:00:08 Â± 00:00:00)</t>
+          <t>00:00:07 (00:00:08 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:01:05 (00:01:12 Â± 00:00:04)</t>
+          <t>00:01:05 (00:01:12 ± 00:00:04)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:16 (00:00:17 Â± 00:00:00)</t>
+          <t>00:00:16 (00:00:17 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>00:00:18 (00:00:19 Â± 00:00:00)</t>
+          <t>00:00:18 (00:00:19 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>00:00:54 (00:00:55 Â± 00:00:00)</t>
+          <t>00:00:54 (00:00:55 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>00:00:23 (00:00:24 Â± 00:00:00)</t>
+          <t>00:00:23 (00:00:24 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>00:00:09 (00:00:10 Â± 00:00:00)</t>
+          <t>00:00:09 (00:00:10 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1822,37 +1822,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:14 Â± 00:00:17)</t>
+          <t>00:05:00 (00:05:14 ± 00:00:17)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:00:30 (00:01:57 Â± 00:01:31)</t>
+          <t>00:00:30 (00:01:57 ± 00:01:31)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:00:21 (00:02:46 Â± 00:01:49)</t>
+          <t>00:00:21 (00:02:46 ± 00:01:49)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:05 Â± 00:00:05)</t>
+          <t>00:05:00 (00:05:05 ± 00:00:05)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:19 Â± 00:00:13)</t>
+          <t>00:05:01 (00:05:19 ± 00:00:13)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:08 Â± 00:00:07)</t>
+          <t>00:05:01 (00:05:08 ± 00:00:07)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>00:05:02 (00:05:14 Â± 00:00:12)</t>
+          <t>00:05:02 (00:05:14 ± 00:00:12)</t>
         </is>
       </c>
     </row>
@@ -1911,37 +1911,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:07 Â± 00:00:02)</t>
+          <t>00:00:01 (00:00:07 ± 00:00:02)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:00:04 (00:00:06 Â± 00:00:01)</t>
+          <t>00:00:04 (00:00:06 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:07 Â± 00:00:04)</t>
+          <t>00:00:01 (00:00:07 ± 00:00:04)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:03 Â± 00:00:02)</t>
+          <t>00:00:00 (00:00:03 ± 00:00:02)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:05 Â± 00:00:02)</t>
+          <t>00:00:01 (00:00:05 ± 00:00:02)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:04 Â± 00:00:01)</t>
+          <t>00:00:00 (00:00:04 ± 00:00:01)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:05 Â± 00:00:02)</t>
+          <t>00:00:01 (00:00:05 ± 00:00:02)</t>
         </is>
       </c>
     </row>
@@ -1953,37 +1953,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1995,37 +1995,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2037,37 +2037,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
     </row>
@@ -2079,37 +2079,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:05 Â± 00:00:02)</t>
+          <t>00:00:00 (00:00:05 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:03 Â± 00:00:01)</t>
+          <t>00:00:01 (00:00:03 ± 00:00:01)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:03 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:03 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:03 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:03 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>00:00:02 (00:00:10 Â± 00:00:08)</t>
+          <t>00:00:02 (00:00:10 ± 00:00:08)</t>
         </is>
       </c>
     </row>
@@ -2121,37 +2121,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2163,37 +2163,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2205,37 +2205,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2247,37 +2247,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2289,37 +2289,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2331,37 +2331,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2373,37 +2373,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2415,37 +2415,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2457,37 +2457,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2499,37 +2499,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2541,37 +2541,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
